--- a/study01/report/motivation/scr-signedup-participants/intrinsic-motivation/by-Type/ParametricAnalysis.xlsx
+++ b/study01/report/motivation/scr-signedup-participants/intrinsic-motivation/by-Type/ParametricAnalysis.xlsx
@@ -9312,13 +9312,13 @@
         <v>0.4838272873463546</v>
       </c>
       <c r="E6" t="n" s="34">
-        <v>8.927092015630738</v>
+        <v>8.92709201563074</v>
       </c>
       <c r="F6" t="n" s="35">
         <v>0.13749409897306974</v>
       </c>
       <c r="G6" t="n" s="36">
-        <v>0.004165023980171685</v>
+        <v>0.00416502398017168</v>
       </c>
     </row>
     <row r="7">
@@ -9335,13 +9335,13 @@
         <v>0.4838272873463546</v>
       </c>
       <c r="E7" t="n" s="34">
-        <v>6.709972254233631E-4</v>
+        <v>6.709972254213091E-4</v>
       </c>
       <c r="F7" t="n" s="35">
         <v>1.1981949742254945E-5</v>
       </c>
       <c r="G7" t="n" s="36">
-        <v>0.9794263058756065</v>
+        <v>0.979426305875638</v>
       </c>
     </row>
     <row r="8">
@@ -9358,13 +9358,13 @@
         <v>0.4838272873463546</v>
       </c>
       <c r="E8" t="n" s="34">
-        <v>0.012533031327943658</v>
+        <v>0.012533031327940062</v>
       </c>
       <c r="F8" t="n" s="35">
         <v>2.23754053774542E-4</v>
       </c>
       <c r="G8" t="n" s="36">
-        <v>0.9112625613913725</v>
+        <v>0.9112625613913852</v>
       </c>
     </row>
     <row r="9">
@@ -9425,10 +9425,10 @@
         <v>1.0</v>
       </c>
       <c r="D14" t="n" s="57">
-        <v>8.927092015630738</v>
+        <v>8.92709201563074</v>
       </c>
       <c r="E14" t="n" s="58">
-        <v>0.004165023980171685</v>
+        <v>0.00416502398017168</v>
       </c>
     </row>
     <row r="15">
@@ -9442,10 +9442,10 @@
         <v>1.0</v>
       </c>
       <c r="D15" t="n" s="57">
-        <v>6.709972254233631E-4</v>
+        <v>6.709972254213091E-4</v>
       </c>
       <c r="E15" t="n" s="58">
-        <v>0.9794263058756065</v>
+        <v>0.979426305875638</v>
       </c>
     </row>
     <row r="16">
@@ -9459,10 +9459,10 @@
         <v>1.0</v>
       </c>
       <c r="D16" t="n" s="57">
-        <v>0.012533031327943658</v>
+        <v>0.012533031327940062</v>
       </c>
       <c r="E16" t="n" s="58">
-        <v>0.9112625613913725</v>
+        <v>0.9112625613913852</v>
       </c>
     </row>
     <row r="17">
@@ -21086,7 +21086,7 @@
         <v>5.558680796777775</v>
       </c>
       <c r="I7" t="n" s="760">
-        <v>24.441805832683052</v>
+        <v>24.441805832683055</v>
       </c>
       <c r="J7" t="n" s="761">
         <v>0.08711334447448951</v>
@@ -21127,7 +21127,7 @@
         <v>5.407949900228769</v>
       </c>
       <c r="I8" t="n" s="760">
-        <v>24.441805832683052</v>
+        <v>24.441805832683055</v>
       </c>
       <c r="J8" t="n" s="761">
         <v>0.08711334447448951</v>
@@ -21214,7 +21214,7 @@
         <v>5.558680796777775</v>
       </c>
       <c r="I11" t="n" s="791">
-        <v>24.441805832683052</v>
+        <v>24.441805832683055</v>
       </c>
       <c r="J11" t="n" s="792">
         <v>0.08711334447448951</v>
@@ -21255,7 +21255,7 @@
         <v>5.407949900228769</v>
       </c>
       <c r="I12" t="n" s="791">
-        <v>24.441805832683052</v>
+        <v>24.441805832683055</v>
       </c>
       <c r="J12" t="n" s="792">
         <v>0.08711334447448951</v>
@@ -21342,7 +21342,7 @@
         <v>5.558680796777775</v>
       </c>
       <c r="I15" t="n" s="822">
-        <v>24.441805832683052</v>
+        <v>24.441805832683055</v>
       </c>
       <c r="J15" t="n" s="823">
         <v>0.08711334447448951</v>
@@ -21383,7 +21383,7 @@
         <v>5.407949900228769</v>
       </c>
       <c r="I16" t="n" s="822">
-        <v>24.441805832683052</v>
+        <v>24.441805832683055</v>
       </c>
       <c r="J16" t="n" s="823">
         <v>0.08711334447448951</v>
